--- a/result/with_base/124/valence/s06_4.xlsx
+++ b/result/with_base/124/valence/s06_4.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7675000131130219</v>
+        <v>0.8264508843421936</v>
       </c>
       <c r="C2" t="n">
-        <v>41752.892578125</v>
+        <v>11291.1904296875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7828409129923041</v>
+        <v>0.8363970588235294</v>
       </c>
       <c r="E2" t="n">
-        <v>41755.14275568182</v>
+        <v>11290.34782858456</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8449999988079071</v>
+        <v>0.83984375</v>
       </c>
       <c r="C3" t="n">
-        <v>40999.427734375</v>
+        <v>10988.00341796875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.84931819005446</v>
+        <v>0.8697478981579051</v>
       </c>
       <c r="E3" t="n">
-        <v>40999.74112215909</v>
+        <v>10986.43772977941</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8800000250339508</v>
+        <v>0.83984375</v>
       </c>
       <c r="C4" t="n">
-        <v>40240.90625</v>
+        <v>10690.2080078125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9065909006378867</v>
+        <v>0.8745404411764706</v>
       </c>
       <c r="E4" t="n">
-        <v>40238.77024147727</v>
+        <v>10688.29113051471</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9000000059604645</v>
+        <v>0.8917410671710968</v>
       </c>
       <c r="C5" t="n">
-        <v>39490.822265625</v>
+        <v>10395.47998046875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.902272722937844</v>
+        <v>0.9269957998219658</v>
       </c>
       <c r="E5" t="n">
-        <v>39490.57457386364</v>
+        <v>10393.94623161765</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.8917410671710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38747.8671875</v>
+        <v>10108.53466796875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9392045465382662</v>
+        <v>0.9440651255495408</v>
       </c>
       <c r="E6" t="n">
-        <v>38747.25923295454</v>
+        <v>10107.35081571691</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C7" t="n">
-        <v>38016.39453125</v>
+        <v>9828.39892578125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.95034090497277</v>
+        <v>0.9589023099226111</v>
       </c>
       <c r="E7" t="n">
-        <v>38015.46377840909</v>
+        <v>9827.136201746323</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C8" t="n">
-        <v>37296.056640625</v>
+        <v>9554.34912109375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9492045315829191</v>
+        <v>0.9613314060603871</v>
       </c>
       <c r="E8" t="n">
-        <v>37294.80965909091</v>
+        <v>9553.346392463236</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9375</v>
+        <v>0.9051339328289032</v>
       </c>
       <c r="C9" t="n">
-        <v>36585.3125</v>
+        <v>9287.10791015625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9635227268392389</v>
+        <v>0.9565388665479773</v>
       </c>
       <c r="E9" t="n">
-        <v>36584.52947443182</v>
+        <v>9286.130744485294</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C10" t="n">
-        <v>35886.6015625</v>
+        <v>9026.3095703125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9686363772912459</v>
+        <v>0.9628413880572599</v>
       </c>
       <c r="E10" t="n">
-        <v>35885.77627840909</v>
+        <v>9024.965360753677</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C11" t="n">
-        <v>35200.310546875</v>
+        <v>8771.41357421875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9707954525947571</v>
+        <v>0.9661896018420949</v>
       </c>
       <c r="E11" t="n">
-        <v>35198.7890625</v>
+        <v>8770.14786305147</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34524.666015625</v>
+        <v>8523.09521484375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9797727357257496</v>
+        <v>0.972229515804964</v>
       </c>
       <c r="E12" t="n">
-        <v>34523.14453125</v>
+        <v>8521.619083180147</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C13" t="n">
-        <v>33860.6484375</v>
+        <v>8280.27978515625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9829545562917535</v>
+        <v>0.984243697979871</v>
       </c>
       <c r="E13" t="n">
-        <v>33859.23579545454</v>
+        <v>8279.197954963236</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C14" t="n">
-        <v>33208.369140625</v>
+        <v>8044.12255859375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9788636511022394</v>
+        <v>0.9773503156269298</v>
       </c>
       <c r="E14" t="n">
-        <v>33206.88849431818</v>
+        <v>8042.989573759191</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C15" t="n">
-        <v>32567.08984375</v>
+        <v>7814.2998046875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9836363792419434</v>
+        <v>0.9671743687461404</v>
       </c>
       <c r="E15" t="n">
-        <v>32565.82936789773</v>
+        <v>7812.892635569853</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C16" t="n">
-        <v>31936.91796875</v>
+        <v>7589.197021484375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9916622884133283</v>
       </c>
       <c r="E16" t="n">
-        <v>31935.94371448864</v>
+        <v>7588.318072150735</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C17" t="n">
-        <v>31318.2958984375</v>
+        <v>7370.2666015625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9864772829142484</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E17" t="n">
-        <v>31317.31356534091</v>
+        <v>7369.674689797794</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9375</v>
       </c>
       <c r="C18" t="n">
-        <v>30710.9921875</v>
+        <v>7157.363525390625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9847727417945862</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E18" t="n">
-        <v>30709.90181107954</v>
+        <v>7156.728199678309</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C19" t="n">
-        <v>30113.96875</v>
+        <v>6949.970458984375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9881818294525146</v>
+        <v>0.9892988450386945</v>
       </c>
       <c r="E19" t="n">
-        <v>30113.21306818182</v>
+        <v>6949.299144071691</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C20" t="n">
-        <v>29528.5234375</v>
+        <v>6747.865478515625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9868181943893433</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E20" t="n">
-        <v>29527.33913352273</v>
+        <v>6747.227366727941</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C21" t="n">
-        <v>28952.939453125</v>
+        <v>6551.1806640625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9909090995788574</v>
+        <v>0.9841780452167287</v>
       </c>
       <c r="E21" t="n">
-        <v>28951.88014914773</v>
+        <v>6550.481761259191</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.93359375</v>
       </c>
       <c r="C22" t="n">
-        <v>28387.787109375</v>
+        <v>6359.38916015625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9909090995788574</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E22" t="n">
-        <v>28386.99396306818</v>
+        <v>6358.833266314338</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C23" t="n">
-        <v>27833.07421875</v>
+        <v>6172.829345703125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E23" t="n">
-        <v>27832.33913352273</v>
+        <v>6172.329561121323</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C24" t="n">
-        <v>27288.595703125</v>
+        <v>5991.296630859375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E24" t="n">
-        <v>27287.77556818182</v>
+        <v>5990.798282398897</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C25" t="n">
-        <v>26753.8681640625</v>
+        <v>5814.6669921875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E25" t="n">
-        <v>26753.12535511364</v>
+        <v>5814.087115119485</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9375</v>
       </c>
       <c r="C26" t="n">
-        <v>26229.0029296875</v>
+        <v>5642.454833984375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E26" t="n">
-        <v>26228.36896306818</v>
+        <v>5642.055721507353</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.94140625</v>
       </c>
       <c r="C27" t="n">
-        <v>25714.25390625</v>
+        <v>5475.184326171875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9929545521736145</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E27" t="n">
-        <v>25713.30486505682</v>
+        <v>5474.683880974265</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C28" t="n">
-        <v>25208.1015625</v>
+        <v>5312.16552734375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9976365531192106</v>
       </c>
       <c r="E28" t="n">
-        <v>25207.623046875</v>
+        <v>5311.765021829044</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C29" t="n">
-        <v>24711.8681640625</v>
+        <v>5153.564453125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9936363697052002</v>
+        <v>0.9977022058823529</v>
       </c>
       <c r="E29" t="n">
-        <v>24711.29953835227</v>
+        <v>5153.22354664522</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9453125</v>
       </c>
       <c r="C30" t="n">
-        <v>24224.4033203125</v>
+        <v>4999.2392578125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9977022058823529</v>
       </c>
       <c r="E30" t="n">
-        <v>24224.06747159091</v>
+        <v>4998.985897288603</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C31" t="n">
-        <v>23746.3916015625</v>
+        <v>4849.400146484375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E31" t="n">
-        <v>23745.90465198864</v>
+        <v>4848.958697150735</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.94140625</v>
       </c>
       <c r="C32" t="n">
-        <v>23277.18359375</v>
+        <v>4703.357421875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E32" t="n">
-        <v>23276.63565340909</v>
+        <v>4702.978659237132</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C33" t="n">
-        <v>22816.435546875</v>
+        <v>4561.298828125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E33" t="n">
-        <v>22816.01438210227</v>
+        <v>4560.982967601103</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C34" t="n">
-        <v>22364.4580078125</v>
+        <v>4423.18896484375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E34" t="n">
-        <v>22363.97159090909</v>
+        <v>4422.887896369485</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C35" t="n">
-        <v>21921.1552734375</v>
+        <v>4288.852783203125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9986213235294118</v>
       </c>
       <c r="E35" t="n">
-        <v>21920.38512073864</v>
+        <v>4288.56298828125</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.94140625</v>
       </c>
       <c r="C36" t="n">
-        <v>21485.1669921875</v>
+        <v>4158.224365234375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9971769942956812</v>
       </c>
       <c r="E36" t="n">
-        <v>21484.95703125</v>
+        <v>4157.950741038603</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C37" t="n">
-        <v>21058.40625</v>
+        <v>4031.182250976562</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9920454621315002</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E37" t="n">
-        <v>21057.740234375</v>
+        <v>4030.946892233456</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9375</v>
       </c>
       <c r="C38" t="n">
-        <v>20638.8623046875</v>
+        <v>3907.689575195312</v>
       </c>
       <c r="D38" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9971769942956812</v>
       </c>
       <c r="E38" t="n">
-        <v>20638.45827414773</v>
+        <v>3907.464858111213</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C39" t="n">
-        <v>20227.3125</v>
+        <v>3787.646484375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9948135509210474</v>
       </c>
       <c r="E39" t="n">
-        <v>20226.99165482954</v>
+        <v>3787.406077665441</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C40" t="n">
-        <v>19823.5849609375</v>
+        <v>3670.853759765625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9960227283564481</v>
+        <v>0.9986213235294118</v>
       </c>
       <c r="E40" t="n">
-        <v>19823.20348011364</v>
+        <v>3670.679113051471</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C41" t="n">
-        <v>19427.5078125</v>
+        <v>3557.53125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9949448529411765</v>
       </c>
       <c r="E41" t="n">
-        <v>19426.95649857954</v>
+        <v>3557.248434627757</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C42" t="n">
-        <v>19038.421875</v>
+        <v>3447.149291992188</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9990808823529411</v>
       </c>
       <c r="E42" t="n">
-        <v>19038.07333096591</v>
+        <v>3446.970918543198</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C43" t="n">
-        <v>18657.080078125</v>
+        <v>3340.085693359375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9925157568034004</v>
       </c>
       <c r="E43" t="n">
-        <v>18656.52219460227</v>
+        <v>3339.80517578125</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C44" t="n">
-        <v>18282.5458984375</v>
+        <v>3235.839965820312</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9943539920975181</v>
       </c>
       <c r="E44" t="n">
-        <v>18282.08469460227</v>
+        <v>3235.626565372243</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C45" t="n">
-        <v>17915.0771484375</v>
+        <v>3134.501342773438</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9977022058823529</v>
       </c>
       <c r="E45" t="n">
-        <v>17914.69779829546</v>
+        <v>3134.38374597886</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C46" t="n">
-        <v>17554.6337890625</v>
+        <v>3036.192260742188</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E46" t="n">
-        <v>17554.22709517046</v>
+        <v>3036.01029698989</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C47" t="n">
-        <v>17200.83203125</v>
+        <v>2940.659912109375</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9917279411764706</v>
       </c>
       <c r="E47" t="n">
-        <v>17200.50550426136</v>
+        <v>2940.436408547794</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C48" t="n">
-        <v>16853.9033203125</v>
+        <v>2847.706665039062</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9953387590015635</v>
       </c>
       <c r="E48" t="n">
-        <v>16853.39985795454</v>
+        <v>2847.552633846507</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C49" t="n">
-        <v>16513.091796875</v>
+        <v>2757.477416992188</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.995798317825093</v>
       </c>
       <c r="E49" t="n">
-        <v>16512.84357244318</v>
+        <v>2757.335276884191</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C50" t="n">
-        <v>16178.962890625</v>
+        <v>2669.890869140625</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E50" t="n">
-        <v>16178.68314985795</v>
+        <v>2669.69917566636</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,883 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C51" t="n">
-        <v>15851.18212890625</v>
+        <v>2584.705444335938</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E51" t="n">
-        <v>15850.84348366477</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15529.30859375</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15529.15021306818</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15213.88525390625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15213.55184659091</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14904.1650390625</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14903.89444247159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14600.5791015625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9935227307406339</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14600.13662997159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14302.3134765625</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14302.10733309659</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C57" t="n">
-        <v>14010.08056640625</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E57" t="n">
-        <v>14009.73046875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13723.25048828125</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13722.88316761364</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13441.59423828125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13441.48828125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13165.744140625</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13165.42711292614</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12894.9541015625</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12894.62473366477</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12629.357421875</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12628.96946022727</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12368.55078125</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12368.37730823864</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12112.9521484375</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12112.77521306818</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11862.21435546875</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11862.0380859375</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11616.3740234375</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11616.08052201705</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11375.033203125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11374.82945667614</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11138.4765625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11138.20454545455</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10906.2646484375</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10906.10014204545</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10678.61376953125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10678.45268110795</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10455.54931640625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9938636422157288</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10455.19753196023</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10236.41015625</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10236.216796875</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C73" t="n">
-        <v>10021.6142578125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E73" t="n">
-        <v>10021.47132457386</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9810.9541015625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9810.87491122159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9604.48974609375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9604.336115056818</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9401.966796875</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9401.786487926136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9203.21875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9203.166459517046</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C78" t="n">
-        <v>9008.48828125</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E78" t="n">
-        <v>9008.406427556818</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8817.56982421875</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8817.41397372159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8630.36181640625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8630.12606534091</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8446.662109375</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8446.492631392046</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4210526315789473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4385964912280702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5087719298245614</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8771929824561403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.02185792349726776</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8771929824561403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.02185792349726776</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9298245614035088</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9298245614035088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9473684210526315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.0546448087431694</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9473684210526315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.0546448087431694</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9649122807017544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.07103825136612021</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9649122807017544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.07103825136612021</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8142076502732241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.825136612021858</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8306010928961749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8415300546448088</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9289617486338798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03508771929824561</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9289617486338798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.03508771929824561</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9453551912568307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9453551912568307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9508196721311475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.07017543859649122</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9508196721311475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.07017543859649122</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9781420765027322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1228070175438596</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9781420765027322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1228070175438596</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9945355191256831</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2584.566176470588</v>
       </c>
     </row>
   </sheetData>
